--- a/Datensatz1/Datei 1/R1.6 - Konsolidierte Datei Datensatz 1.xlsx
+++ b/Datensatz1/Datei 1/R1.6 - Konsolidierte Datei Datensatz 1.xlsx
@@ -296,63 +296,63 @@
     </row>
     <row r="2">
       <c r="A2" s="3">
-        <v>1981.0</v>
+        <v>1982.0</v>
       </c>
       <c r="B2" s="3">
-        <v>0.0</v>
+        <v>20.02</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3">
-        <v>1982.0</v>
+        <v>1983.0</v>
       </c>
       <c r="B3" s="3">
-        <v>20.02</v>
+        <v>20.14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3">
-        <v>1983.0</v>
+        <v>1984.0</v>
       </c>
       <c r="B4" s="3">
-        <v>20.14</v>
+        <v>20.08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3">
-        <v>1984.0</v>
+        <v>1985.0</v>
       </c>
       <c r="B5" s="3">
-        <v>20.08</v>
+        <v>19.91</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3">
-        <v>1985.0</v>
+        <v>1986.0</v>
       </c>
       <c r="B6" s="3">
-        <v>19.91</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3">
-        <v>1986.0</v>
+        <v>1987.0</v>
       </c>
       <c r="B7" s="3">
-        <v>20.0</v>
+        <v>20.24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3">
-        <v>1987.0</v>
+        <v>1988.0</v>
       </c>
       <c r="B8" s="3">
-        <v>20.24</v>
+        <v>20.14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3">
-        <v>1988.0</v>
+        <v>1989.0</v>
       </c>
       <c r="B9" s="3">
         <v>20.14</v>
@@ -360,7 +360,7 @@
     </row>
     <row r="10">
       <c r="A10" s="3">
-        <v>1989.0</v>
+        <v>1990.0</v>
       </c>
       <c r="B10" s="3">
         <v>20.14</v>
@@ -368,273 +368,265 @@
     </row>
     <row r="11">
       <c r="A11" s="3">
-        <v>1990.0</v>
+        <v>1991.0</v>
       </c>
       <c r="B11" s="3">
-        <v>20.14</v>
+        <v>20.15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3">
-        <v>1991.0</v>
+        <v>1992.0</v>
       </c>
       <c r="B12" s="3">
-        <v>20.15</v>
+        <v>20.03</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3">
-        <v>1992.0</v>
+        <v>1993.0</v>
       </c>
       <c r="B13" s="3">
-        <v>20.03</v>
+        <v>20.11</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3">
-        <v>1993.0</v>
+        <v>1994.0</v>
       </c>
       <c r="B14" s="3">
-        <v>20.11</v>
+        <v>20.21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3">
-        <v>1994.0</v>
+        <v>1995.0</v>
       </c>
       <c r="B15" s="3">
-        <v>20.21</v>
+        <v>20.24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3">
-        <v>1995.0</v>
+        <v>1996.0</v>
       </c>
       <c r="B16" s="3">
-        <v>20.24</v>
+        <v>20.15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3">
-        <v>1996.0</v>
+        <v>1997.0</v>
       </c>
       <c r="B17" s="3">
-        <v>20.15</v>
+        <v>20.33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3">
-        <v>1997.0</v>
+        <v>1998.0</v>
       </c>
       <c r="B18" s="3">
-        <v>20.33</v>
+        <v>20.41</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3">
-        <v>1998.0</v>
+        <v>1999.0</v>
       </c>
       <c r="B19" s="3">
-        <v>20.41</v>
+        <v>20.13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3">
-        <v>1999.0</v>
+        <v>2000.0</v>
       </c>
       <c r="B20" s="3">
-        <v>20.13</v>
+        <v>20.21</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3">
-        <v>2000.0</v>
+        <v>2001.0</v>
       </c>
       <c r="B21" s="3">
-        <v>20.21</v>
+        <v>20.33</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3">
-        <v>2001.0</v>
+        <v>2002.0</v>
       </c>
       <c r="B22" s="3">
-        <v>20.33</v>
+        <v>20.27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3">
-        <v>2002.0</v>
+        <v>2003.0</v>
       </c>
       <c r="B23" s="3">
-        <v>20.27</v>
+        <v>20.43</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3">
-        <v>2003.0</v>
+        <v>2004.0</v>
       </c>
       <c r="B24" s="3">
-        <v>20.43</v>
+        <v>20.37</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3">
-        <v>2004.0</v>
+        <v>2005.0</v>
       </c>
       <c r="B25" s="3">
-        <v>20.37</v>
+        <v>20.53</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3">
-        <v>2005.0</v>
+        <v>2006.0</v>
       </c>
       <c r="B26" s="3">
-        <v>20.53</v>
+        <v>20.48</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3">
-        <v>2006.0</v>
+        <v>2007.0</v>
       </c>
       <c r="B27" s="3">
-        <v>20.48</v>
+        <v>20.32</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3">
-        <v>2007.0</v>
+        <v>2008.0</v>
       </c>
       <c r="B28" s="3">
-        <v>20.32</v>
+        <v>20.38</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3">
-        <v>2008.0</v>
+        <v>2009.0</v>
       </c>
       <c r="B29" s="3">
-        <v>20.38</v>
+        <v>20.51</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3">
-        <v>2009.0</v>
+        <v>2010.0</v>
       </c>
       <c r="B30" s="3">
-        <v>20.51</v>
+        <v>20.44</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3">
-        <v>2010.0</v>
+        <v>2011.0</v>
       </c>
       <c r="B31" s="3">
-        <v>20.44</v>
+        <v>20.37</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3">
-        <v>2011.0</v>
+        <v>2012.0</v>
       </c>
       <c r="B32" s="3">
-        <v>20.37</v>
+        <v>20.49</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3">
-        <v>2012.0</v>
+        <v>2013.0</v>
       </c>
       <c r="B33" s="3">
-        <v>20.49</v>
+        <v>20.52</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3">
-        <v>2013.0</v>
+        <v>2014.0</v>
       </c>
       <c r="B34" s="3">
-        <v>20.52</v>
+        <v>20.65</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3">
-        <v>2014.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B35" s="3">
-        <v>20.65</v>
+        <v>20.73</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B36" s="3">
-        <v>20.73</v>
+        <v>20.67</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B37" s="3">
-        <v>20.67</v>
+        <v>20.72</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B38" s="3">
-        <v>20.72</v>
+        <v>20.59</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3">
-        <v>2018.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B39" s="3">
-        <v>20.59</v>
+        <v>20.72</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3">
-        <v>2019.0</v>
+        <v>2020.0</v>
       </c>
       <c r="B40" s="3">
-        <v>20.72</v>
+        <v>20.82</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3">
-        <v>2020.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B41" s="3">
-        <v>20.82</v>
+        <v>20.72</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3">
-        <v>2021.0</v>
+        <v>2022.0</v>
       </c>
       <c r="B42" s="3">
-        <v>20.72</v>
+        <v>20.74</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3">
-        <v>2022.0</v>
+        <v>2023.0</v>
       </c>
       <c r="B43" s="3">
-        <v>20.74</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="3">
-        <v>2023.0</v>
-      </c>
-      <c r="B44" s="3">
         <v>21.09</v>
       </c>
     </row>
